--- a/spreadsheets/Ornn.xlsx
+++ b/spreadsheets/Ornn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8CD5C9-BE4C-4061-93E2-754EEE47A317}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8BEC2-1CCE-4525-BD48-D6F8073113FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t xml:space="preserve">
 </t>
@@ -333,9 +333,6 @@
 </t>
   </si>
   <si>
-    <t>Wukong</t>
-  </si>
-  <si>
     <t>Yasuo</t>
   </si>
   <si>
@@ -363,22 +360,19 @@
     <t>Do not get cheesed by kled, you have to respect his damage, so keep your distance.</t>
   </si>
   <si>
-    <t xml:space="preserve">You have to punish him, just like Kayle, if you let him farm for free he becomes a big problem late game.
-</t>
-  </si>
-  <si>
     <t>Pantheon is a lane bully, if he doesnt get free kills you outscale him.</t>
   </si>
   <si>
     <t>Starting doran's shield help's alot, dont get poked for free, use your q and w when she e's into you so you get a guaranteed knock up with e.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dont take long trades against Renekton, once you get a lot of armor he cant do much to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Its hard to solo kill Tryndamere as Ornn, try to setup a gank if his e is down. You can't let him scale for free.
-</t>
+    <t>You have to punish him, just like Kayle, if you let him farm for free he becomes a big problem late game.</t>
+  </si>
+  <si>
+    <t>Dont take long trades against Renekton, once you get a lot of armor he cant do much to you.</t>
+  </si>
+  <si>
+    <t>Its hard to solo kill Tryndamere as Ornn, try to setup a gank if his e is down. You can't let him scale for free.</t>
   </si>
 </sst>
 </file>
@@ -757,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -869,7 +863,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1894,21 +1888,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="142.375" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2059,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2070,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2092,7 +2086,7 @@
         <v>7.5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,7 +2119,7 @@
         <v>6.5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,26 +2335,22 @@
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="B39" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="C40" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="4">
+      <c r="B40" s="4">
         <v>7</v>
       </c>
     </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
